--- a/Assets/ExcelSheet/LevelList.xlsx
+++ b/Assets/ExcelSheet/LevelList.xlsx
@@ -5,23 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity project\CapstoneRobot\Assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity project\CapstoneRobot\Assets\ExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79721F61-4BBC-4B75-85FE-8C6C60A19114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7ED9108-E4E4-4519-B9F0-4406D974DB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="348" windowWidth="17280" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Area1PuzzleList" sheetId="2" r:id="rId1"/>
-    <sheet name="Production Schedule" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Production Schedule" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
   <si>
     <t>Task Color Code</t>
   </si>
@@ -119,18 +131,6 @@
     <t>Camera Change</t>
   </si>
   <si>
-    <t>Mechanic 1</t>
-  </si>
-  <si>
-    <t>Mechanic 2</t>
-  </si>
-  <si>
-    <t>Mechanic 3</t>
-  </si>
-  <si>
-    <t>additional info</t>
-  </si>
-  <si>
     <t>Move</t>
   </si>
   <si>
@@ -167,9 +167,6 @@
     <t xml:space="preserve">Scanner Open Gate </t>
   </si>
   <si>
-    <t xml:space="preserve">Scanner </t>
-  </si>
-  <si>
     <t>Gate</t>
   </si>
   <si>
@@ -197,14 +194,55 @@
     <t>Sawblade</t>
   </si>
   <si>
-    <t>Second Area(WIP)</t>
-  </si>
-  <si>
     <t>size</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Scanner/Gate</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2x2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1x2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scanner</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gate</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battery</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bomb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sawblade</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Puzzle elements</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -212,7 +250,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -259,6 +297,20 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -286,9 +338,18 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -298,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -328,6 +389,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,183 +613,257 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="2" max="3" width="27" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="26.6640625" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F1" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="D6" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>59</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="D7" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
-        <v>48</v>
+      <c r="F7" s="20" t="s">
+        <v>59</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>50</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>58</v>
-      </c>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78496C8A-D579-4987-9545-37E1B6528B4E}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1">
+        <f>COUNTIF(Area1PuzzleList!$F$1:$H$87,A1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2">
+        <f>COUNTIF(Area1PuzzleList!$F$1:$H$87,A2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3">
+        <f>COUNTIF(Area1PuzzleList!$F$1:$H$87,A3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4">
+        <f>COUNTIF(Area1PuzzleList!$F$1:$H$87,A4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5">
+        <f>COUNTIF(Area1PuzzleList!$F$1:$H$87,A5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6">
+        <f>COUNTIF(Area1PuzzleList!$F$1:$H$87,A6)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
